--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
   <si>
     <t>MD</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Cofirst</t>
   </si>
   <si>
+    <t>suppose the total author number is 60, then, for a order point of 3/30, it might be 4th (head) or 58th (tail), according to odd even pattern</t>
+  </si>
+  <si>
     <t>Tuobang Li</t>
   </si>
   <si>
@@ -59,12 +62,18 @@
     <t>Benson Au</t>
   </si>
   <si>
+    <t>i.e., =60 times 2/3 times 3/30</t>
+  </si>
+  <si>
     <t>Adrián González-Casanova</t>
   </si>
   <si>
     <t>Iain Carmichael</t>
   </si>
   <si>
+    <t>=60-60 times 1/3 times 3/30.</t>
+  </si>
+  <si>
     <t>Ani Adhikari</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Computer science, statistics </t>
+  </si>
+  <si>
+    <t>e.g., Tuobang Li is the second, David H. Raulet is the last</t>
   </si>
   <si>
     <t>Peter Bartlett</t>
@@ -1846,19 +1858,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1876,6 +1888,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1883,27 +1898,30 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1911,85 +1929,91 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1997,152 +2021,152 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2150,192 +2174,192 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2343,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -2354,154 +2378,154 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
         <v>80</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2509,32 +2533,32 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2542,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -2553,146 +2577,146 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
         <v>117</v>
-      </c>
-      <c r="C94" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2700,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -2711,34 +2735,34 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" t="s">
         <v>127</v>
-      </c>
-      <c r="C104" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2746,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -2757,122 +2781,122 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" t="s">
         <v>135</v>
-      </c>
-      <c r="C112" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" t="s">
         <v>142</v>
-      </c>
-      <c r="C119" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2880,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D123">
         <v>12</v>
@@ -2891,58 +2915,58 @@
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2950,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D132">
         <v>13</v>
@@ -2961,194 +2985,194 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" t="s">
         <v>156</v>
-      </c>
-      <c r="C133" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" t="s">
         <v>163</v>
-      </c>
-      <c r="C140" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3156,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -3167,231 +3191,231 @@
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" t="s">
         <v>194</v>
-      </c>
-      <c r="C170" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C181" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C184" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C185" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C192" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C196" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3399,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D197">
         <v>5</v>
@@ -3410,34 +3434,34 @@
     </row>
     <row r="198" spans="2:3">
       <c r="B198" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C198" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C199" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" t="s">
         <v>223</v>
-      </c>
-      <c r="C200" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C201" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="229">
   <si>
     <t>MD</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Cor</t>
+    <t>Co-Cor</t>
   </si>
   <si>
     <t>Cofirst</t>
@@ -53,13 +53,13 @@
     <t>Tuobang Li</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Benson Au</t>
+  </si>
+  <si>
     <t>Statistics</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Benson Au</t>
   </si>
   <si>
     <t>i.e., =60 times 2/3 times 3/30</t>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1900,31 +1900,28 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1932,10 +1929,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1943,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1954,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1981,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -1989,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -1997,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -2013,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2026,11 +2020,8 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -2038,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -2054,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2062,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -2070,7 +2061,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -2086,7 +2077,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -2110,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -2118,7 +2109,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -2134,7 +2125,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -2142,7 +2133,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -2150,7 +2141,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -2158,7 +2149,7 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -2166,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2179,9 +2170,6 @@
       <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2187,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -2207,7 +2195,7 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -2215,7 +2203,7 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -2223,7 +2211,7 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2231,7 +2219,7 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -2239,7 +2227,7 @@
         <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -2247,7 +2235,7 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2255,7 +2243,7 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -2263,7 +2251,7 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2287,7 +2275,7 @@
         <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -2295,7 +2283,7 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -2303,7 +2291,7 @@
         <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -2311,7 +2299,7 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -2319,7 +2307,7 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2327,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -2335,7 +2323,7 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -2343,7 +2331,7 @@
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2351,7 +2339,7 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -2359,10 +2347,10 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2370,9 +2358,6 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
         <v>10</v>
       </c>
     </row>
@@ -2538,11 +2523,9 @@
       <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
+      <c r="D76"/>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -2561,7 +2544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2570,9 +2553,6 @@
       </c>
       <c r="C79" t="s">
         <v>80</v>
-      </c>
-      <c r="D79">
-        <v>6</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -2719,7 +2699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2728,9 +2708,6 @@
       </c>
       <c r="C100" t="s">
         <v>127</v>
-      </c>
-      <c r="D100">
-        <v>7</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -2765,7 +2742,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2774,9 +2751,6 @@
       </c>
       <c r="C105" t="s">
         <v>127</v>
-      </c>
-      <c r="D105">
-        <v>8</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -2899,7 +2873,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2908,9 +2882,6 @@
       </c>
       <c r="C123" t="s">
         <v>142</v>
-      </c>
-      <c r="D123">
-        <v>12</v>
       </c>
     </row>
     <row r="124" spans="2:3">
@@ -2980,7 +2951,7 @@
         <v>156</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:3">
@@ -3186,7 +3157,7 @@
         <v>185</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="2:3">
@@ -3418,7 +3389,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3427,9 +3398,6 @@
       </c>
       <c r="C197" t="s">
         <v>223</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
       </c>
     </row>
     <row r="198" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="12495" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1921,7 +1921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1930,6 +1930,9 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -2523,7 +2526,6 @@
       <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D76"/>
       <c r="E76" t="s">
         <v>8</v>
       </c>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2173,6 +2173,9 @@
       <c r="C32" t="s">
         <v>51</v>
       </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2878,7 +2878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2887,6 +2887,9 @@
       </c>
       <c r="C123" t="s">
         <v>142</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12495" windowHeight="13275"/>
+    <workbookView windowWidth="20910" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Computer science, statistics </t>
   </si>
   <si>
-    <t>e.g., Tuobang Li is the second, David H. Raulet is the last</t>
+    <t>e.g., Tuobang Li is the second, Stella Yu is the last</t>
   </si>
   <si>
     <t>Peter Bartlett</t>
@@ -1860,8 +1860,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2023,6 +2023,9 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2365,6 +2368,9 @@
       </c>
       <c r="C55" t="s">
         <v>10</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2549,7 +2555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2558,6 +2564,9 @@
       </c>
       <c r="C79" t="s">
         <v>80</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20910" windowHeight="11655"/>
+    <workbookView windowWidth="21150" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
   <si>
     <t>MD</t>
   </si>
@@ -1860,8 +1860,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3163,7 +3163,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3175,6 +3175,9 @@
       </c>
       <c r="D160">
         <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
   <si>
     <t>MD</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Cofirst</t>
   </si>
   <si>
-    <t>suppose the total author number is 60, then, for a order point of 3/30, it might be 4th (head) or 58th (tail), according to odd even pattern</t>
-  </si>
-  <si>
     <t>Tuobang Li</t>
   </si>
   <si>
@@ -62,18 +59,12 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>i.e., =60 times 2/3 times 3/30</t>
-  </si>
-  <si>
     <t>Adrián González-Casanova</t>
   </si>
   <si>
     <t>Iain Carmichael</t>
   </si>
   <si>
-    <t>=60-60 times 1/3 times 3/30.</t>
-  </si>
-  <si>
     <t>Ani Adhikari</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">Computer science, statistics </t>
-  </si>
-  <si>
-    <t>e.g., Tuobang Li is the second, Stella Yu is the last</t>
   </si>
   <si>
     <t>Peter Bartlett</t>
@@ -1858,19 +1846,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+      <selection activeCell="G1" sqref="G1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1888,9 +1876,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1898,27 +1883,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1926,91 +1908,85 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2018,152 +1994,152 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2171,192 +2147,192 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2364,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -2375,154 +2351,154 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2530,29 +2506,29 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2560,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -2571,146 +2547,146 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2718,42 +2694,42 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2761,130 +2737,130 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2892,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -2903,58 +2879,58 @@
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2962,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2973,194 +2949,194 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C159" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3168,245 +3144,245 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C168" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C177" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C178" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C186" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C196" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3414,42 +3390,42 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C197" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C199" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C200" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2501,7 +2501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2510,9 +2510,6 @@
       </c>
       <c r="C76" t="s">
         <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -2531,7 +2528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2542,6 +2539,9 @@
         <v>76</v>
       </c>
       <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>7</v>
       </c>
     </row>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="225">
   <si>
     <t>MD</t>
   </si>
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2501,7 +2501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2510,6 +2510,9 @@
       </c>
       <c r="C76" t="s">
         <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="225">
   <si>
     <t>MD</t>
   </si>
@@ -1848,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1915,6 +1915,9 @@
       </c>
       <c r="D4">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -41,7 +41,7 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Co-Cor</t>
+    <t>Cocor</t>
   </si>
   <si>
     <t>Cofirst</t>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2547,6 +2547,7 @@
       <c r="D79">
         <v>7</v>
       </c>
+      <c r="E79"/>
       <c r="F79" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3158,7 +3159,7 @@
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="F160" t="s">
+      <c r="E160" t="s">
         <v>48</v>
       </c>
     </row>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="225">
   <si>
     <t>MD</t>
   </si>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1915,9 +1915,6 @@
       </c>
       <c r="D4">
         <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Cofirst</t>
+  </si>
+  <si>
+    <t>The order follows an odd-even pattern, odd is the head, even is the tail.</t>
   </si>
   <si>
     <t>Tuobang Li</t>
@@ -1846,19 +1849,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1876,6 +1881,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1883,24 +1891,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1908,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1919,74 +1927,74 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1994,152 +2002,152 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2147,192 +2155,192 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2340,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -2351,154 +2359,154 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2506,29 +2514,29 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2536,161 +2544,161 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D79">
         <v>7</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" t="s">
         <v>105</v>
-      </c>
-      <c r="C84" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s">
         <v>110</v>
-      </c>
-      <c r="C88" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
         <v>114</v>
-      </c>
-      <c r="C91" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2698,42 +2706,42 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
         <v>124</v>
-      </c>
-      <c r="C101" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2741,130 +2749,130 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" t="s">
         <v>132</v>
-      </c>
-      <c r="C109" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
         <v>139</v>
-      </c>
-      <c r="C116" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2872,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -2883,58 +2891,58 @@
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
         <v>153</v>
-      </c>
-      <c r="C130" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2942,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2953,194 +2961,194 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" t="s">
         <v>160</v>
-      </c>
-      <c r="C137" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" t="s">
         <v>168</v>
-      </c>
-      <c r="C145" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" t="s">
         <v>171</v>
-      </c>
-      <c r="C147" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" t="s">
         <v>182</v>
-      </c>
-      <c r="C159" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3148,245 +3156,245 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
+        <v>192</v>
+      </c>
+      <c r="C167" t="s">
         <v>191</v>
-      </c>
-      <c r="C167" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C185" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C192" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C194" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C196" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3394,42 +3402,42 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
+        <v>221</v>
+      </c>
+      <c r="C197" t="s">
         <v>220</v>
-      </c>
-      <c r="C197" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C200" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C201" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -47,7 +47,7 @@
     <t>Cofirst</t>
   </si>
   <si>
-    <t>The order follows an odd-even pattern, odd is the head, even is the tail.</t>
+    <t>The order follows an odd-even pattern, the odd is the head, the even is the tail.</t>
   </si>
   <si>
     <t>Tuobang Li</t>
@@ -1854,7 +1854,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2539,7 +2539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2552,8 +2552,7 @@
       <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
+      <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="12240"/>
+    <workbookView windowWidth="21150" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2539,7 +2539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2551,9 +2551,6 @@
       </c>
       <c r="D79">
         <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="80" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="10890"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -176,412 +176,412 @@
     <t>Statistics and Electrical Engineering and Computer Sciences</t>
   </si>
   <si>
+    <t>Rasmus Nielsen</t>
+  </si>
+  <si>
+    <t>Integrative Biology and Statistics</t>
+  </si>
+  <si>
+    <t>Deborah Nolan</t>
+  </si>
+  <si>
+    <t>Christopher Paciorek</t>
+  </si>
+  <si>
+    <t>Fernando Pérez</t>
+  </si>
+  <si>
+    <t>Sam Pimentel</t>
+  </si>
+  <si>
+    <t>Jim Pitman</t>
+  </si>
+  <si>
+    <t>Libor Pospisil</t>
+  </si>
+  <si>
+    <t>Elizabeth Purdom</t>
+  </si>
+  <si>
+    <t>Gaston Sanchez</t>
+  </si>
+  <si>
+    <t>Jeremy Eli Sanchez</t>
+  </si>
+  <si>
+    <t>Alistair Sinclair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science </t>
+  </si>
+  <si>
+    <t>Yun S. Song</t>
+  </si>
+  <si>
+    <t>EECS and Statistics</t>
+  </si>
+  <si>
+    <t>Philip B. Stark</t>
+  </si>
+  <si>
+    <t>Jacob Steinhardt</t>
+  </si>
+  <si>
+    <t>Shobhana Murali Stoyanov</t>
+  </si>
+  <si>
+    <t>Alexander Strang</t>
+  </si>
+  <si>
+    <t>Ryan Tibshirani</t>
+  </si>
+  <si>
+    <t>Mark van der Laan</t>
+  </si>
+  <si>
+    <t>Ken Wachter</t>
+  </si>
+  <si>
+    <t>Martin Wainwright</t>
+  </si>
+  <si>
+    <t>Adam Yala</t>
+  </si>
+  <si>
+    <t>Bin Yu</t>
+  </si>
+  <si>
+    <t>Nikita Zhivotovskiy</t>
+  </si>
+  <si>
+    <t>Iswar Hariharan</t>
+  </si>
+  <si>
+    <t>Molecular &amp; Cell Biology</t>
+  </si>
+  <si>
+    <t>Daniel K. Nomura</t>
+  </si>
+  <si>
+    <t>Molecular &amp; Cell Biology, Nutritional Science &amp; Toxicology</t>
+  </si>
+  <si>
+    <t>Eric Betzig</t>
+  </si>
+  <si>
+    <t>David G. Drubin</t>
+  </si>
+  <si>
+    <t>Georjana Barnes</t>
+  </si>
+  <si>
+    <t>Michelle C. Chang</t>
+  </si>
+  <si>
+    <t>Molecular &amp; Cell Biology,Chemical &amp; Biomolecular Engineering</t>
+  </si>
+  <si>
+    <t>Robert Tjian</t>
+  </si>
+  <si>
+    <t>Ana Paula Arruda</t>
+  </si>
+  <si>
+    <t>Daniel A. Fletcher</t>
+  </si>
+  <si>
+    <t>David Kirn</t>
+  </si>
+  <si>
+    <t>Fyodor Urnov</t>
+  </si>
+  <si>
+    <t>Stuart Linn</t>
+  </si>
+  <si>
+    <t>Randy Schekman</t>
+  </si>
+  <si>
+    <t>John Ngai</t>
+  </si>
+  <si>
+    <t>Hiroshi Nikaido</t>
+  </si>
+  <si>
+    <t>Jeremy Thorner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Firestone </t>
+  </si>
+  <si>
+    <t>Denis Titov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael B. Eisen </t>
+  </si>
+  <si>
+    <t>David H. Raulet</t>
+  </si>
+  <si>
+    <t>Helen Bateup</t>
+  </si>
+  <si>
+    <t>Ross Wilson</t>
+  </si>
+  <si>
+    <t>Matthew Welch</t>
+  </si>
+  <si>
+    <t>Michael Rape</t>
+  </si>
+  <si>
+    <t>Michael Botchan</t>
+  </si>
+  <si>
+    <t>Anders Näär</t>
+  </si>
+  <si>
+    <t>Nutritional Science &amp; Toxicology</t>
+  </si>
+  <si>
+    <t>Marc Hellerstein</t>
+  </si>
+  <si>
+    <t>Danica Chen</t>
+  </si>
+  <si>
+    <t>Sona Kang</t>
+  </si>
+  <si>
+    <t>Karthik Shekhar</t>
+  </si>
+  <si>
+    <t>Chemical &amp; Biomolecular Engineering</t>
+  </si>
+  <si>
+    <t>Teresa Head-Gordon</t>
+  </si>
+  <si>
+    <t>Jay D. Keasling</t>
+  </si>
+  <si>
+    <t>Evan R. Williams</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Jamie H. D. Cate</t>
+  </si>
+  <si>
+    <t>Judith P. Klinman</t>
+  </si>
+  <si>
+    <t>Susan Marqusee</t>
+  </si>
+  <si>
+    <t>Michael A. Marletta</t>
+  </si>
+  <si>
+    <t>John Kuriyan</t>
+  </si>
+  <si>
+    <t>Sung-Hou Kim</t>
+  </si>
+  <si>
+    <t>Graham R. Fleming</t>
+  </si>
+  <si>
+    <t>Christopher J. Chang</t>
+  </si>
+  <si>
+    <t>Alan Hubbard</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t>Stephen Rappaport</t>
+  </si>
+  <si>
+    <t>Ashley R. Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter J. Dailey </t>
+  </si>
+  <si>
+    <t>Stefano M. Bertozzi</t>
+  </si>
+  <si>
+    <t>Patrick Bradshaw</t>
+  </si>
+  <si>
+    <t>Jingshen Wang</t>
+  </si>
+  <si>
+    <t>Tyrone B. Hayes</t>
+  </si>
+  <si>
+    <t>Integrative Biology</t>
+  </si>
+  <si>
+    <t>Caroline Williams</t>
+  </si>
+  <si>
+    <t>Oskar Hallatschek</t>
+  </si>
+  <si>
+    <t>Rebecca Tarvin</t>
+  </si>
+  <si>
+    <t>Robert J. Full</t>
+  </si>
+  <si>
+    <t>Michael Nachman</t>
+  </si>
+  <si>
+    <t>Adam P. Arkin</t>
+  </si>
+  <si>
+    <t>Bioengineering</t>
+  </si>
+  <si>
+    <t>Aaron Streets</t>
+  </si>
+  <si>
+    <t>Patrick Hsu</t>
+  </si>
+  <si>
+    <t>Taner Sen</t>
+  </si>
+  <si>
+    <t>Derfogail Delcassian</t>
+  </si>
+  <si>
+    <t>Phillip Messersmith</t>
+  </si>
+  <si>
+    <t>Ian Holmes</t>
+  </si>
+  <si>
+    <t>Dorian Liepmann</t>
+  </si>
+  <si>
+    <t>Mohammad R. K. Mofrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerard Marriott </t>
+  </si>
+  <si>
+    <t>Michael Yartsev</t>
+  </si>
+  <si>
+    <t>Boris Rubinsky</t>
+  </si>
+  <si>
+    <t>Kevin Edward Healy</t>
+  </si>
+  <si>
+    <t>Jill Banfield</t>
+  </si>
+  <si>
+    <t>Innovative Genomics Institute</t>
+  </si>
+  <si>
+    <t>Spencer Diamond</t>
+  </si>
+  <si>
+    <t>Jennifer Doudna</t>
+  </si>
+  <si>
+    <t>James Nuñez</t>
+  </si>
+  <si>
+    <t>Ben Rubin</t>
+  </si>
+  <si>
+    <t>Myeong-Je Cho</t>
+  </si>
+  <si>
+    <t>Benjamin Blackman</t>
+  </si>
+  <si>
+    <t>Dept of Plant and Microbial Biology</t>
+  </si>
+  <si>
+    <t>Ben Williams</t>
+  </si>
+  <si>
+    <t>Mary C. Wildermuth</t>
+  </si>
+  <si>
+    <t>Brian Staskawicz</t>
+  </si>
+  <si>
+    <t>Patrick Shih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John D. Coates </t>
+  </si>
+  <si>
+    <t>Sabeeha Merchant</t>
+  </si>
+  <si>
+    <t>Preeya Khanna</t>
+  </si>
+  <si>
+    <t>Electrical Engineering/EECS</t>
+  </si>
+  <si>
+    <t>Luke Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian A. Barsky </t>
+  </si>
+  <si>
+    <t>Computer Science/EECS</t>
+  </si>
+  <si>
+    <t>Richard M. Karp</t>
+  </si>
+  <si>
+    <t>Chunlei Liu</t>
+  </si>
+  <si>
+    <t>Bruno Olshausen</t>
+  </si>
+  <si>
+    <t>Jose M. Carmena</t>
+  </si>
+  <si>
+    <t>Nilah Ioannidis</t>
+  </si>
+  <si>
+    <t>Avishay Tal</t>
+  </si>
+  <si>
+    <t>Grigory Tikhomirov</t>
+  </si>
+  <si>
+    <t>Katherine A. Yelick</t>
+  </si>
+  <si>
+    <t>Nir Yosef</t>
+  </si>
+  <si>
+    <t>Karsten Gronert</t>
+  </si>
+  <si>
+    <t>School of Optometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John G. Flanagan </t>
+  </si>
+  <si>
+    <t>Stella Yu</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Rasmus Nielsen</t>
-  </si>
-  <si>
-    <t>Integrative Biology and Statistics</t>
-  </si>
-  <si>
-    <t>Deborah Nolan</t>
-  </si>
-  <si>
-    <t>Christopher Paciorek</t>
-  </si>
-  <si>
-    <t>Fernando Pérez</t>
-  </si>
-  <si>
-    <t>Sam Pimentel</t>
-  </si>
-  <si>
-    <t>Jim Pitman</t>
-  </si>
-  <si>
-    <t>Libor Pospisil</t>
-  </si>
-  <si>
-    <t>Elizabeth Purdom</t>
-  </si>
-  <si>
-    <t>Gaston Sanchez</t>
-  </si>
-  <si>
-    <t>Jeremy Eli Sanchez</t>
-  </si>
-  <si>
-    <t>Alistair Sinclair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science </t>
-  </si>
-  <si>
-    <t>Yun S. Song</t>
-  </si>
-  <si>
-    <t>EECS and Statistics</t>
-  </si>
-  <si>
-    <t>Philip B. Stark</t>
-  </si>
-  <si>
-    <t>Jacob Steinhardt</t>
-  </si>
-  <si>
-    <t>Shobhana Murali Stoyanov</t>
-  </si>
-  <si>
-    <t>Alexander Strang</t>
-  </si>
-  <si>
-    <t>Ryan Tibshirani</t>
-  </si>
-  <si>
-    <t>Mark van der Laan</t>
-  </si>
-  <si>
-    <t>Ken Wachter</t>
-  </si>
-  <si>
-    <t>Martin Wainwright</t>
-  </si>
-  <si>
-    <t>Adam Yala</t>
-  </si>
-  <si>
-    <t>Bin Yu</t>
-  </si>
-  <si>
-    <t>Nikita Zhivotovskiy</t>
-  </si>
-  <si>
-    <t>Iswar Hariharan</t>
-  </si>
-  <si>
-    <t>Molecular &amp; Cell Biology</t>
-  </si>
-  <si>
-    <t>Daniel K. Nomura</t>
-  </si>
-  <si>
-    <t>Molecular &amp; Cell Biology, Nutritional Science &amp; Toxicology</t>
-  </si>
-  <si>
-    <t>Eric Betzig</t>
-  </si>
-  <si>
-    <t>David G. Drubin</t>
-  </si>
-  <si>
-    <t>Georjana Barnes</t>
-  </si>
-  <si>
-    <t>Michelle C. Chang</t>
-  </si>
-  <si>
-    <t>Molecular &amp; Cell Biology,Chemical &amp; Biomolecular Engineering</t>
-  </si>
-  <si>
-    <t>Robert Tjian</t>
-  </si>
-  <si>
-    <t>Ana Paula Arruda</t>
-  </si>
-  <si>
-    <t>Daniel A. Fletcher</t>
-  </si>
-  <si>
-    <t>David Kirn</t>
-  </si>
-  <si>
-    <t>Fyodor Urnov</t>
-  </si>
-  <si>
-    <t>Stuart Linn</t>
-  </si>
-  <si>
-    <t>Randy Schekman</t>
-  </si>
-  <si>
-    <t>John Ngai</t>
-  </si>
-  <si>
-    <t>Hiroshi Nikaido</t>
-  </si>
-  <si>
-    <t>Jeremy Thorner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gary Firestone </t>
-  </si>
-  <si>
-    <t>Denis Titov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael B. Eisen </t>
-  </si>
-  <si>
-    <t>David H. Raulet</t>
-  </si>
-  <si>
-    <t>Helen Bateup</t>
-  </si>
-  <si>
-    <t>Ross Wilson</t>
-  </si>
-  <si>
-    <t>Matthew Welch</t>
-  </si>
-  <si>
-    <t>Michael Rape</t>
-  </si>
-  <si>
-    <t>Michael Botchan</t>
-  </si>
-  <si>
-    <t>Anders Näär</t>
-  </si>
-  <si>
-    <t>Nutritional Science &amp; Toxicology</t>
-  </si>
-  <si>
-    <t>Marc Hellerstein</t>
-  </si>
-  <si>
-    <t>Danica Chen</t>
-  </si>
-  <si>
-    <t>Sona Kang</t>
-  </si>
-  <si>
-    <t>Karthik Shekhar</t>
-  </si>
-  <si>
-    <t>Chemical &amp; Biomolecular Engineering</t>
-  </si>
-  <si>
-    <t>Teresa Head-Gordon</t>
-  </si>
-  <si>
-    <t>Jay D. Keasling</t>
-  </si>
-  <si>
-    <t>Evan R. Williams</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Jamie H. D. Cate</t>
-  </si>
-  <si>
-    <t>Judith P. Klinman</t>
-  </si>
-  <si>
-    <t>Susan Marqusee</t>
-  </si>
-  <si>
-    <t>Michael A. Marletta</t>
-  </si>
-  <si>
-    <t>John Kuriyan</t>
-  </si>
-  <si>
-    <t>Sung-Hou Kim</t>
-  </si>
-  <si>
-    <t>Graham R. Fleming</t>
-  </si>
-  <si>
-    <t>Christopher J. Chang</t>
-  </si>
-  <si>
-    <t>Alan Hubbard</t>
-  </si>
-  <si>
-    <t>Public Health</t>
-  </si>
-  <si>
-    <t>Stephen Rappaport</t>
-  </si>
-  <si>
-    <t>Ashley R. Wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter J. Dailey </t>
-  </si>
-  <si>
-    <t>Stefano M. Bertozzi</t>
-  </si>
-  <si>
-    <t>Patrick Bradshaw</t>
-  </si>
-  <si>
-    <t>Jingshen Wang</t>
-  </si>
-  <si>
-    <t>Tyrone B. Hayes</t>
-  </si>
-  <si>
-    <t>Integrative Biology</t>
-  </si>
-  <si>
-    <t>Caroline Williams</t>
-  </si>
-  <si>
-    <t>Oskar Hallatschek</t>
-  </si>
-  <si>
-    <t>Rebecca Tarvin</t>
-  </si>
-  <si>
-    <t>Robert J. Full</t>
-  </si>
-  <si>
-    <t>Michael Nachman</t>
-  </si>
-  <si>
-    <t>Adam P. Arkin</t>
-  </si>
-  <si>
-    <t>Bioengineering</t>
-  </si>
-  <si>
-    <t>Aaron Streets</t>
-  </si>
-  <si>
-    <t>Patrick Hsu</t>
-  </si>
-  <si>
-    <t>Taner Sen</t>
-  </si>
-  <si>
-    <t>Derfogail Delcassian</t>
-  </si>
-  <si>
-    <t>Phillip Messersmith</t>
-  </si>
-  <si>
-    <t>Ian Holmes</t>
-  </si>
-  <si>
-    <t>Dorian Liepmann</t>
-  </si>
-  <si>
-    <t>Mohammad R. K. Mofrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerard Marriott </t>
-  </si>
-  <si>
-    <t>Michael Yartsev</t>
-  </si>
-  <si>
-    <t>Boris Rubinsky</t>
-  </si>
-  <si>
-    <t>Kevin Edward Healy</t>
-  </si>
-  <si>
-    <t>Jill Banfield</t>
-  </si>
-  <si>
-    <t>Innovative Genomics Institute</t>
-  </si>
-  <si>
-    <t>Spencer Diamond</t>
-  </si>
-  <si>
-    <t>Jennifer Doudna</t>
-  </si>
-  <si>
-    <t>James Nuñez</t>
-  </si>
-  <si>
-    <t>Ben Rubin</t>
-  </si>
-  <si>
-    <t>Myeong-Je Cho</t>
-  </si>
-  <si>
-    <t>Benjamin Blackman</t>
-  </si>
-  <si>
-    <t>Dept of Plant and Microbial Biology</t>
-  </si>
-  <si>
-    <t>Ben Williams</t>
-  </si>
-  <si>
-    <t>Mary C. Wildermuth</t>
-  </si>
-  <si>
-    <t>Brian Staskawicz</t>
-  </si>
-  <si>
-    <t>Patrick Shih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John D. Coates </t>
-  </si>
-  <si>
-    <t>Sabeeha Merchant</t>
-  </si>
-  <si>
-    <t>Preeya Khanna</t>
-  </si>
-  <si>
-    <t>Electrical Engineering/EECS</t>
-  </si>
-  <si>
-    <t>Luke Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian A. Barsky </t>
-  </si>
-  <si>
-    <t>Computer Science/EECS</t>
-  </si>
-  <si>
-    <t>Richard M. Karp</t>
-  </si>
-  <si>
-    <t>Chunlei Liu</t>
-  </si>
-  <si>
-    <t>Bruno Olshausen</t>
-  </si>
-  <si>
-    <t>Jose M. Carmena</t>
-  </si>
-  <si>
-    <t>Nilah Ioannidis</t>
-  </si>
-  <si>
-    <t>Avishay Tal</t>
-  </si>
-  <si>
-    <t>Grigory Tikhomirov</t>
-  </si>
-  <si>
-    <t>Katherine A. Yelick</t>
-  </si>
-  <si>
-    <t>Nir Yosef</t>
-  </si>
-  <si>
-    <t>Karsten Gronert</t>
-  </si>
-  <si>
-    <t>School of Optometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John G. Flanagan </t>
-  </si>
-  <si>
-    <t>Stella Yu</t>
   </si>
   <si>
     <t xml:space="preserve">Xiaohua Gong </t>
@@ -1854,7 +1854,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1923,6 +1923,9 @@
       </c>
       <c r="D4">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2150,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2163,21 +2166,21 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>49</v>
+      <c r="E32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2249,23 +2252,23 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
         <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
         <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2337,18 +2340,18 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2356,157 +2359,160 @@
       <c r="D55">
         <v>9</v>
       </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
         <v>76</v>
-      </c>
-      <c r="C57" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
         <v>78</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2514,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -2525,176 +2531,179 @@
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <v>7</v>
       </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
         <v>104</v>
-      </c>
-      <c r="C83" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
         <v>109</v>
-      </c>
-      <c r="C87" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
         <v>113</v>
-      </c>
-      <c r="C90" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2702,42 +2711,42 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" t="s">
         <v>123</v>
-      </c>
-      <c r="C100" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2745,130 +2754,130 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" t="s">
         <v>131</v>
-      </c>
-      <c r="C108" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
         <v>138</v>
-      </c>
-      <c r="C115" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2876,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -2887,58 +2896,58 @@
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" t="s">
         <v>152</v>
-      </c>
-      <c r="C129" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2946,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2957,194 +2966,194 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" t="s">
         <v>159</v>
-      </c>
-      <c r="C136" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" t="s">
         <v>167</v>
-      </c>
-      <c r="C144" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" t="s">
         <v>170</v>
-      </c>
-      <c r="C146" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" t="s">
         <v>181</v>
-      </c>
-      <c r="C158" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3152,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="2:3">
@@ -3169,7 +3178,7 @@
         <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -470,6 +470,9 @@
     <t>Mohammad R. K. Mofrad</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerard Marriott </t>
   </si>
   <si>
@@ -579,9 +582,6 @@
   </si>
   <si>
     <t>Stella Yu</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Xiaohua Gong </t>
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2880,7 +2880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2893,10 +2893,13 @@
       <c r="D123">
         <v>6</v>
       </c>
+      <c r="E123" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
         <v>138</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
@@ -2912,7 +2915,7 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
         <v>138</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
         <v>138</v>
@@ -2928,26 +2931,26 @@
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
         <v>153</v>
-      </c>
-      <c r="C130" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2955,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2966,194 +2969,194 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" t="s">
         <v>160</v>
-      </c>
-      <c r="C137" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" t="s">
         <v>168</v>
-      </c>
-      <c r="C145" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" t="s">
         <v>171</v>
-      </c>
-      <c r="C147" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" t="s">
         <v>182</v>
-      </c>
-      <c r="C159" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3161,16 +3164,16 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="2:3">
@@ -3178,7 +3181,7 @@
         <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="21150" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2953,7 +2953,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2965,6 +2965,9 @@
       </c>
       <c r="D132">
         <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1894,12 +1894,9 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2953,7 +2950,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2964,10 +2961,13 @@
         <v>153</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
         <v>147</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="10890"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2161,7 +2161,7 @@
         <v>48</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2343,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2355,9 +2355,6 @@
       </c>
       <c r="D55">
         <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2542,7 +2539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2553,9 +2550,12 @@
         <v>76</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="226">
   <si>
     <t>MD</t>
   </si>
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2008,9 +2008,6 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2343,18 +2340,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>1</v>
-      </c>
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2950,7 +2941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2965,9 +2956,6 @@
       </c>
       <c r="E132" t="s">
         <v>147</v>
-      </c>
-      <c r="F132" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="133" spans="2:3">
@@ -3162,7 +3150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3175,8 +3163,8 @@
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="E160" t="s">
-        <v>147</v>
+      <c r="F160" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="2:3">

--- a/author_MD.xlsx
+++ b/author_MD.xlsx
@@ -1852,9 +1852,9 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2158,7 +2158,7 @@
         <v>48</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2541,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
